--- a/medicine/Enfance/Klaus-Peter_Wolf/Klaus-Peter_Wolf.xlsx
+++ b/medicine/Enfance/Klaus-Peter_Wolf/Klaus-Peter_Wolf.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Klaus-Peter Wolf, né le 12 janvier 1954 à Gelsenkirchen, en Allemagne, est un écrivain et scénariste allemand, auteur de roman policier et de littérature d'enfance et de jeunesse.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils unique d'un instructeur de natation alcoolique et d'une coiffeuse, il grandit dans sa ville natale. Adolescent, il travaille comme bénévole dans une auberge de jeunesse de l'Église évangélique.
 Il amorce sa carrière d'écrivain en publiant au début des années 1970 ses premiers ouvrages destinés aux enfants. En 1979, il en a déjà publié dix.
@@ -552,9 +566,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Littérature d'enfance et de jeunesse
-Pour enfants
-Mein Freund Pinto (1972)
+          <t>Littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Pour enfants</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Mein Freund Pinto (1972)
 Das könnt ihr doch mit mir nicht machen (1991)
 Daniel und der Piratenkapitän (1994)
 Die Drachenburg 1996.
@@ -587,9 +609,47 @@
 Die Nordseedetektive. Das rätselhafte Wal-Skelett (2016)
 Die Nordseedetektive. Fahrraddieben auf der Spur (2016)
 Die Nordseedetektive. Der versunkene Piratenschatz (2017)
-Piratenschiffe, Piratenschätze (2017)
-Pour la jeunesse
-Zoff im Jugendheim (1979)
+Piratenschiffe, Piratenschätze (2017)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Klaus-Peter_Wolf</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Klaus-Peter_Wolf</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Pour la jeunesse</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Zoff im Jugendheim (1979)
 Dosenbier und Frikadellen (1979)
 Ufos in unserer Stadt (1980)
 Speedway ist unser Leben (1980)
@@ -607,9 +667,43 @@
 Licht am Ende des Tunnels (2009)
 Nachtblauer Tod
 Neongrüne Angst
-Samstags, wenn Krieg ist
-Romans
-Dosenbier und Frikadellen (1979)
+Samstags, wenn Krieg ist</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Klaus-Peter_Wolf</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Klaus-Peter_Wolf</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Dosenbier und Frikadellen (1979)
 Che. Meine Träume kennen keine Grenzen (1982)
 Die Abschiebung oder wer tötete Mahmut Perver? (1984)
 Das Werden des jungen Leiters (1985)
@@ -632,9 +726,43 @@
 Ostfriesenfeuer (2014) Publié en français sous le titre Vengeance frisonne, Éditions Piranha, coll. « Black Piranha » (2016)  (ISBN 978-2-37119-053-5)
 Ostfriesenwut (2015)
 Ostfriesenschwur (2016)
-Ostfriesentod (2017)
-Scénarios pour la télévision
-1984 : Die Abschiebung réalisé par Marianne Lüdcke
+Ostfriesentod (2017)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Klaus-Peter_Wolf</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Klaus-Peter_Wolf</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Scénarios pour la télévision</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1984 : Die Abschiebung réalisé par Marianne Lüdcke
 1993 : Sportarzt Conny Knipper: Giganten réalisé par Stefan Lukschy (de)
 1994 : Sportarzt Conny Knipper: Glühende Kohlen réalisé par Kaspar Heidelbach (de)
 1994 : Polizeiruf 110: Samstags, wenn Krieg ist (de) réalisé par Roland Suso Richter
